--- a/CMRO2calc2.xlsx
+++ b/CMRO2calc2.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Literature Values</t>
   </si>
   <si>
-    <t xml:space="preserve">Assumed Values</t>
+    <t xml:space="preserve">From Nurse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculated from DOB and MRI Data</t>
   </si>
   <si>
     <t xml:space="preserve">Measured Values</t>
@@ -43,10 +46,28 @@
     <t xml:space="preserve">Chi_do</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MRI Scan Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T1b</t>
   </si>
   <si>
     <t xml:space="preserve">CSaO2</t>
@@ -89,9 +110,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -165,11 +188,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -187,6 +214,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -211,286 +250,386 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:X13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="2.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="4.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="2.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="1.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="1.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="2.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="1.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="Q2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="n">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <f aca="false">-0.03*4*PI()</f>
         <v>-0.376991118430775</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <f aca="false">0.21*4*PI()</f>
         <v>2.63893782901543</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="n">
-        <f aca="false">(1/F3-0.37)/0.5</f>
-        <v>0.318201058201058</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="n">
+      <c r="D3" s="6" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F3" s="6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="n">
+        <v>42869</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>42944</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8" t="n">
+        <f aca="false">DATEDIF(H3,I3,"d")</f>
+        <v>75</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <f aca="false">2.07558 - 0.00205*K3</f>
+        <v>1.92183</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <f aca="false">(1/L3-0.41)/0.38</f>
+        <v>0.290361544109411</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="n">
         <v>0.95</v>
       </c>
-      <c r="I3" s="5" t="n">
+      <c r="P3" s="6" t="n">
         <v>0.223188</v>
       </c>
-      <c r="J3" s="5" t="n">
+      <c r="Q3" s="6" t="n">
         <v>366</v>
       </c>
-      <c r="K3" s="5" t="n">
+      <c r="R3" s="6" t="n">
         <v>349</v>
       </c>
-      <c r="L3" s="5" t="n">
+      <c r="S3" s="6" t="n">
         <v>16.688985</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="n">
-        <f aca="false">E3/(3*0.0165)</f>
-        <v>6.42830420608198</v>
-      </c>
-      <c r="O3" s="5" t="n">
-        <f aca="false">1-(I3-(B3*E3))/(C3*E3)</f>
-        <v>0.591351985053445</v>
-      </c>
-      <c r="P3" s="5" t="n">
-        <f aca="false">H3-O3</f>
-        <v>0.358648014946555</v>
-      </c>
-      <c r="Q3" s="5" t="n">
-        <f aca="false">L3*(P3)*N3</f>
-        <v>38.47643060138</v>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6" t="n">
+        <f aca="false">M3/(3*0.0165)</f>
+        <v>5.8658897799881</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <f aca="false">1-(P3-(B3*M3))/(C3*M3)</f>
+        <v>0.565868277313635</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <f aca="false">O3-V3</f>
+        <v>0.384131722686366</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <f aca="false">S3*(W3)*U3</f>
+        <v>37.6048617658712</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="n">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <f aca="false">-0.03*4*PI()</f>
         <v>-0.376991118430775</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <f aca="false">0.21*4*PI()</f>
         <v>2.63893782901543</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="n">
-        <f aca="false">(1/F4-0.37)/0.5</f>
-        <v>0.318201058201058</v>
-      </c>
-      <c r="F4" s="5" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="n">
+      <c r="D4" s="6" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="9" t="n">
+        <v>42869</v>
+      </c>
+      <c r="I4" s="9" t="n">
+        <v>42944</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="8" t="n">
+        <f aca="false">DATEDIF(H4,I4,"d")</f>
+        <v>75</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <f aca="false">2.07558 - 0.00205*K4</f>
+        <v>1.92183</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <f aca="false">(1/L4-0.41)/0.38</f>
+        <v>0.290361544109411</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="n">
         <v>0.95</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="P4" s="6" t="n">
         <v>0.237076</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="Q4" s="6" t="n">
         <v>191</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="R4" s="6" t="n">
         <v>182</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="S4" s="6" t="n">
         <v>11.145936</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="n">
-        <f aca="false">E4/(3*0.0165)</f>
-        <v>6.42830420608198</v>
-      </c>
-      <c r="O4" s="5" t="n">
-        <f aca="false">1-(I4-(B4*E4))/(C4*E4)</f>
-        <v>0.574812997152762</v>
-      </c>
-      <c r="P4" s="5" t="n">
-        <f aca="false">H4-O4</f>
-        <v>0.375187002847238</v>
-      </c>
-      <c r="Q4" s="5" t="n">
-        <f aca="false">L4*(P4)*N4</f>
-        <v>26.8819488804527</v>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="n">
+        <f aca="false">M4/(3*0.0165)</f>
+        <v>5.8658897799881</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <f aca="false">1-(P4-(B4*M4))/(C4*M4)</f>
+        <v>0.547743551232178</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <f aca="false">O4-V4</f>
+        <v>0.402256448767823</v>
+      </c>
+      <c r="X4" s="6" t="n">
+        <f aca="false">S4*(W4)*U4</f>
+        <v>26.299861326286</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="n">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <f aca="false">-0.03*4*PI()</f>
         <v>-0.376991118430775</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <f aca="false">0.21*4*PI()</f>
         <v>2.63893782901543</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="n">
-        <f aca="false">(1/F5-0.37)/0.5</f>
-        <v>0.318201058201058</v>
-      </c>
-      <c r="F5" s="5" t="n">
-        <v>1.89</v>
+      <c r="D5" s="6" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.36</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="9" t="n">
+        <v>42895</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>42951</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="8" t="n">
+        <f aca="false">DATEDIF(H5,I5,"d")</f>
+        <v>56</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <f aca="false">2.07558 - 0.00205*K5</f>
+        <v>1.96078</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <f aca="false">(1/L5-0.41)/0.38</f>
+        <v>0.263160847374917</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="6" t="n">
         <v>0.95</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="P5" s="6" t="n">
         <v>0.201984</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="Q5" s="6" t="n">
         <v>145</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="R5" s="6" t="n">
         <v>138</v>
       </c>
-      <c r="L5" s="5" t="n">
+      <c r="S5" s="6" t="n">
         <v>12.630386</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="5" t="n">
-        <f aca="false">E5/(3*0.0165)</f>
-        <v>6.42830420608198</v>
-      </c>
-      <c r="O5" s="5" t="n">
-        <f aca="false">1-(I5-(B5*E5))/(C5*E5)</f>
-        <v>0.616603475508953</v>
-      </c>
-      <c r="P5" s="5" t="n">
-        <f aca="false">H5-O5</f>
-        <v>0.333396524491047</v>
-      </c>
-      <c r="Q5" s="5" t="n">
-        <f aca="false">L5*(P5)*N5</f>
-        <v>27.069118430247</v>
+      <c r="T5" s="10"/>
+      <c r="U5" s="6" t="n">
+        <f aca="false">M5/(3*0.0165)</f>
+        <v>5.31638075504882</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <f aca="false">1-(P5-(B5*M5))/(C5*M5)</f>
+        <v>0.566294554523233</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <f aca="false">O5-V5</f>
+        <v>0.383705445476767</v>
+      </c>
+      <c r="X5" s="6" t="n">
+        <f aca="false">S5*(W5)*U5</f>
+        <v>25.7650306369826</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="N1:Q1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="U1:X1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
